--- a/data/master-direction-rbi/results.xlsx
+++ b/data/master-direction-rbi/results.xlsx
@@ -1,37 +1,260 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damodarbasyal/MyData/MainStorage_2/Learning/NLP/LLM at Central Bank - GitHub/data/master-direction-rbi/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A347581-FE73-C641-8CEC-E7FA65AE616E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Answer Relevance Reasoning</t>
+  </si>
+  <si>
+    <t>Faithfulness Reasoning</t>
+  </si>
+  <si>
+    <t>Context Relevance Reasoning</t>
+  </si>
+  <si>
+    <t>What controls are suggested for card payments security?</t>
+  </si>
+  <si>
+    <t>For card payments security, it is suggested to follow various payment card standards, including PCI-PIN, PCI-PTS, PCI-HSM, and PCI-P2PE, to ensure comprehensive security. Additionally, terminals at merchants should be validated against PCI-P2PE and PCI-PTS programs. Acquirers should secure their card payment infrastructure using methods like UKPT, DUKPT, or TLE.
+Hardware Security Modules (HSMs) should have tamper-proof logging, high availability through clustering, secure backups, and controlled access through Access Control Lists (ACLs). HSMs should also handle decryption, validation of keys, PIN generation, CVV generation, and ensure secure PIN block formats.
+ATMs should have security measures like BIOS passwords, disabled USB ports, and anti-skimming solutions. Robust surveillance and monitoring of card transactions, especially overseas cash withdrawals, should be implemented with rules and limits based on risk appetites. Card data scanning tools should be tested in a safe environment and used only within the RE's premises.
+Overall, these controls aim to enhance the security of card payments by protecting sensitive data and ensuring the integrity of payment processes.</t>
+  </si>
+  <si>
+    <t>##Source 1:
+Governance and Management of Security Risks
+4 REs shall formulate a policy for digital payment products and services with the approval of their Board. The contours of the policy, while discussing the.....
+##Source 2:
+CARD PAYMENTS SECURITY
+In addition to the controls prescribed in Chapter II, the following instructions are applicable to the REs offering/ intending to issue cards (credit/ debit/ prepaid) (physical.....
+##Source 3:
+MOBILE PAYMENTS APPLICATION SECURITY CONTROLS
+In addition to the controls prescribed in Chapter II, the following instructions are applicable to the REs offering/ intending to offer mobile banking/ m.....
+##Source 4:
+INTERNET BANKING SECURITY CONTROLS
+In addition to the controls prescribed in Chapter II, the following instructions are applicable to REs offering/ intending to offer internet banking facility to the.....
+##Source 5:
+1 Short Title and Commencement
+a) These directions shall be called the Reserve Bank of India (Digital Payment Security Controls) directions, 2021.
+b) These directions shall come into effect six mont.....</t>
+  </si>
+  <si>
+    <t>Feedback: The response provides a comprehensive list of controls suggested for card payments security, including various PCI standards, infrastructure security methods, HSM requirements, ATM security measures, and overall monitoring strategies. It directly addresses the query by detailing specific controls that enhance the security of card payments, ensuring the protection of sensitive data and the integrity of payment processes.
+EVALUATION SCORE: 1</t>
+  </si>
+  <si>
+    <t>Feedback: The response is largely faithful to the context provided. It accurately mentions various payment card standards such as PCI-PIN, PCI-PTS, PCI-HSM, and PCI-P2PE, and emphasizes the importance of validating terminals against these standards. The response also correctly highlights the need for securing card payment infrastructure using methods like UKPT, DUKPT, or TLE.
+The details about Hardware Security Modules (HSMs) are well-supported by the context, including the need for tamper-proof logging, high availability, secure backups, and controlled access through ACLs. The response accurately describes the functions of HSMs, such as decryption, key validation, PIN generation, CVV generation, and secure PIN block formats.
+The response also correctly mentions security measures for ATMs, such as BIOS passwords, disabled USB ports, and anti-skimming solutions. It emphasizes the importance of robust surveillance and monitoring of card transactions, especially overseas cash withdrawals, with rules and limits based on risk appetites. The mention of card data scanning tools being tested in a safe environment and used only within the RE's premises is also supported by the context.
+Overall, the response aligns well with the context, providing a comprehensive overview of the security measures for card payments.
+EVALUATION SCORE: 1.</t>
+  </si>
+  <si>
+    <t>Feedback: The retrieved context provides extensive information on security measures for digital payment products and services, including specific controls for card payments, mobile payments, and internet banking. It covers a wide range of security aspects such as encryption, authentication, risk management, and fraud prevention. However, the context does not explicitly mention "card payments security" in a direct and concise manner that would immediately answer the query about suggested controls for card payments security. While the information is relevant and comprehensive, it requires the reader to sift through a lot of details to find specific controls related to card payments security.
+EVALUATION SCORE: 0.7</t>
+  </si>
+  <si>
+    <t>What controls/provisions are suggested for security of internet banking?</t>
+  </si>
+  <si>
+    <t>To enhance the security of internet banking, several controls and provisions are suggested:
+1. **Additional Authentication Levels**: Implement additional levels of authentication, such as adaptive authentication and strong CAPTCHA with anti-bot features, to protect against brute force and DoS attacks.
+2. **Session Management**: Automatically terminate online sessions after a fixed period of inactivity.
+3. **Secure Password Delivery**: Ensure secure delivery of passwords for login purposes, with a limited validity period and mandatory change on first login.
+4. **Uniform Authentication**: Maintain a uniform authentication procedure and appearance for internet banking sites, especially when accessed through external websites.
+5. **Virtual Keyboard**: Provide a virtual keyboard option for secure data input.
+6. **DNS Cache Poisoning Prevention**: Implement measures to prevent DNS cache poisoning attacks.
+7. **Secure Cookie Handling**: Ensure secure handling of cookies to prevent unauthorized access.
+8. **Consistent Look and Feel**: Maintain a consistent look and feel for the internet banking site to help users verify its authenticity.
+These provisions aim to strengthen the security of internet banking services and protect users from various cyber threats.</t>
+  </si>
+  <si>
+    <t>##Source 1:
+INTERNET BANKING SECURITY CONTROLS
+In addition to the controls prescribed in Chapter II, the following instructions are applicable to REs offering/ intending to offer internet banking facility to the.....
+##Source 2:
+Governance and Management of Security Risks
+4 REs shall formulate a policy for digital payment products and services with the approval of their Board. The contours of the policy, while discussing the.....
+##Source 3:
+MOBILE PAYMENTS APPLICATION SECURITY CONTROLS
+In addition to the controls prescribed in Chapter II, the following instructions are applicable to the REs offering/ intending to offer mobile banking/ m.....
+##Source 4:
+CARD PAYMENTS SECURITY
+In addition to the controls prescribed in Chapter II, the following instructions are applicable to the REs offering/ intending to issue cards (credit/ debit/ prepaid) (physical.....
+##Source 5:
+1 Short Title and Commencement
+a) These directions shall be called the Reserve Bank of India (Digital Payment Security Controls) directions, 2021.
+b) These directions shall come into effect six mont.....</t>
+  </si>
+  <si>
+    <t>Feedback: The response directly addresses the query by providing a comprehensive list of controls and provisions suggested for enhancing the security of internet banking. Each point is relevant and specific to the query, covering various aspects such as authentication, session management, password delivery, and more. The response is detailed and offers practical suggestions that are directly applicable to the security of internet banking.
+EVALUATION SCORE: 1</t>
+  </si>
+  <si>
+    <t>Feedback: The response is largely faithful to the context provided. It accurately reflects the various security measures suggested for enhancing internet banking security, such as additional authentication levels, session management, secure password delivery, uniform authentication, virtual keyboard, DNS cache poisoning prevention, secure cookie handling, and consistent look and feel. All these points are directly supported by the context. However, the context does not explicitly mention "adaptive authentication" and "strong CAPTCHA with anti-bot features," but these can be inferred as part of the additional authentication levels. Therefore, the response is mostly faithful to the context with minor inferences.
+EVALUATION SCORE: 0.9</t>
+  </si>
+  <si>
+    <t>Feedback: The retrieved context is highly relevant to the query. It provides detailed information on various security controls and provisions suggested for the security of internet banking. The context covers a wide range of topics including authentication methods, risk management, fraud prevention, and specific technical controls that are directly related to the security of internet banking. This information is comprehensive and directly addresses the query about the controls and provisions for securing internet banking.
+EVALUATION SCORE: 1</t>
+  </si>
+  <si>
+    <t>What provisions related to multi factor authentication are mentioned in documents?</t>
+  </si>
+  <si>
+    <t>Multi-factor authentication should be implemented for payments through electronic modes and fund transfers, with at least one method being dynamic or non-replicable. Adaptive authentication can be used to select authentication factors based on risk assessment and user behavior. The authentication process should protect payment data confidentiality and enhance digital payment security.
+Key points include:
+- Assessment of risk based on customer type, transaction patterns, and sensitivity of information.
+- Consideration of customer acceptance, ease of use, and interoperability.
+- Application of multi-factor authentication and alerts for all payment transactions and account changes.
+- Measures to minimize exposure to man-in-the-middle attacks.
+- Secure session management with encryption and prompt notification of transaction status.
+- Limits on failed login attempts and secure procedures for re-activation.
+- Documentation of suspicious transactional behavior and mechanisms to alert customers.
+- Education of staff on fraud control tools, investigative techniques, and data processing.
+- Maintenance of updated contact details for incident response coordination.
+- Real-time reconciliation framework for digital payment transactions.
+- Incorporation of secure usage guidelines and grievance redressal mechanisms within digital payment applications.
+- Customer education on device security and awareness of potential threats.
+- Provision of a mechanism for customers to mark transactions as fraudulent.
+- Implementation of security controls for mobile and internet banking applications.
+- Adherence to payment card industry standards for card payments security.
+- Robust surveillance and monitoring of card transactions with transaction control mechanisms.
+- Safety measures for card data scanning tools to identify unencrypted card data.</t>
+  </si>
+  <si>
+    <t>##Source 1:
+Governance and Management of Security Risks
+4 REs shall formulate a policy for digital payment products and services with the approval of their Board. The contours of the policy, while discussing the.....
+##Source 2:
+MOBILE PAYMENTS APPLICATION SECURITY CONTROLS
+In addition to the controls prescribed in Chapter II, the following instructions are applicable to the REs offering/ intending to offer mobile banking/ m.....
+##Source 3:
+INTERNET BANKING SECURITY CONTROLS
+In addition to the controls prescribed in Chapter II, the following instructions are applicable to REs offering/ intending to offer internet banking facility to the.....
+##Source 4:
+CARD PAYMENTS SECURITY
+In addition to the controls prescribed in Chapter II, the following instructions are applicable to the REs offering/ intending to issue cards (credit/ debit/ prepaid) (physical.....
+##Source 5:
+1 Short Title and Commencement
+a) These directions shall be called the Reserve Bank of India (Digital Payment Security Controls) directions, 2021.
+b) These directions shall come into effect six mont.....</t>
+  </si>
+  <si>
+    <t>Feedback: The response provides a comprehensive list of provisions related to multi-factor authentication, including specific requirements and additional security measures. It directly addresses the query by detailing when and how multi-factor authentication should be implemented, along with related security protocols. The response is highly relevant and answers the query perfectly.
+EVALUATION SCORE: 1</t>
+  </si>
+  <si>
+    <t>Feedback: The response is largely faithful to the context provided. It accurately reflects the need for multi-factor authentication, adaptive authentication, and the protection of payment data confidentiality. However, it does not cover all the key points mentioned in the context, such as the assessment of risk based on customer type, transaction patterns, and sensitivity of information, or the measures to minimize exposure to man-in-the-middle attacks. Despite these omissions, the response aligns well with the overall theme of enhancing digital payment security as outlined in the context.
+EVALUATION SCORE: 0.7</t>
+  </si>
+  <si>
+    <t>Feedback: The retrieved context is highly relevant to the query. It explicitly mentions the provisions related to multi-factor authentication (MFA) in several sections, particularly under the "Authentication Framework" (points 33 and 34). These sections detail the requirements and guidelines for implementing MFA for digital payment products and services, including the types of authentication methodologies, risk assessment, and adaptive authentication. The context also discusses related security measures and controls that support the implementation of MFA, such as encryption standards, secure application development, and fraud risk management. This information directly addresses the query about MFA provisions mentioned in the documents.
+EVALUATION SCORE: 1</t>
+  </si>
+  <si>
+    <t>What provisions related to encryption are outlined in the documents?</t>
+  </si>
+  <si>
+    <t>Several provisions related to encryption are outlined in the documents:
+1. **Mobile Applications**:
+   - **Device or Application Encryption**: Encryption is mentioned as a specific control for mobile applications.
+   - **Storage of Customer Data**: Customer data should be stored securely, implying the use of encryption.
+   - **Secure Download/Install**: The application should be downloaded and installed securely, suggesting the use of encryption during these processes.
+   - **Checksum Verification**: The checksum of the current active version of the application should be hosted on a public platform, allowing users to verify the integrity of their download, which indirectly implies the use of encryption for security.
+2. **General Controls**:
+   - **Communication Protocol**: The communication protocol in digital payment channels, especially over the Internet, should adhere to a secure standard with an appropriate level of encryption.
+   - **Data Storage**: Sensitive information should be written to the database in an encrypted form.
+   - **Temp Files**: Sensitive information written in temporary files must be suitably encrypted/masked/hashed and stored securely.
+3. **Card Payments Security**:
+   - **PCI Standards**: Adherence to various PCI standards ensures comprehensive payment card security, including encryption requirements.
+   - **HSM Security Controls**: Hardware Security Modules (HSMs) should have logging enabled with tamper-proof logs, and decryption and validation of keys and PINs should be done at the HSM, ensuring secure encryption processes.
+   - **Card Data Scanning Tools**: Any discovered unencrypted card data must be appropriately masked, emphasizing the importance of encryption in securing sensitive information.
+4. **Internet Banking Security Controls**:
+   - **Secure Delivery of Passwords**: The password generated and dispatched by the RE should be valid for a limited period, implying secure and possibly encrypted delivery methods.
+These provisions highlight the importance of encryption in securing various aspects of digital payment systems, from mobile applications to general controls and card payments security.</t>
+  </si>
+  <si>
+    <t>##Source 1:
+MOBILE PAYMENTS APPLICATION SECURITY CONTROLS
+In addition to the controls prescribed in Chapter II, the following instructions are applicable to the REs offering/ intending to offer mobile banking/ m.....
+##Source 2:
+Governance and Management of Security Risks
+4 REs shall formulate a policy for digital payment products and services with the approval of their Board. The contours of the policy, while discussing the.....
+##Source 3:
+CARD PAYMENTS SECURITY
+In addition to the controls prescribed in Chapter II, the following instructions are applicable to the REs offering/ intending to issue cards (credit/ debit/ prepaid) (physical.....
+##Source 4:
+INTERNET BANKING SECURITY CONTROLS
+In addition to the controls prescribed in Chapter II, the following instructions are applicable to REs offering/ intending to offer internet banking facility to the.....
+##Source 5:
+1 Short Title and Commencement
+a) These directions shall be called the Reserve Bank of India (Digital Payment Security Controls) directions, 2021.
+b) These directions shall come into effect six mont.....</t>
+  </si>
+  <si>
+    <t>Feedback: The response provides a comprehensive and detailed overview of the provisions related to encryption as outlined in the documents. It covers various aspects such as mobile applications, general controls, card payments security, and internet banking security controls. Each point is clearly explained and directly addresses the query about encryption provisions. The response is well-structured and provides specific examples and implications of encryption use, making it highly relevant to the query.
+EVALUATION SCORE: 1</t>
+  </si>
+  <si>
+    <t>Feedback: The response is largely faithful to the context provided. It accurately reflects the provisions related to encryption in mobile applications, general controls, card payments security, and internet banking security controls. The response details specific controls and standards that imply or directly mention the use of encryption, which aligns well with the context. However, the context does not explicitly mention "checksum verification" being hosted on a public platform, which is a minor deviation. Overall, the response is well-supported by the context.
+EVALUATION SCORE: 0.9</t>
+  </si>
+  <si>
+    <t>Feedback: The retrieved context is highly relevant to answering the query about provisions related to encryption. The context specifically mentions "device or application encryption" under the specific controls for mobile applications, which directly addresses the query. Additionally, the context discusses various security measures, including encryption, for mobile payments, digital payment applications, and card payments, which are all pertinent to the query.
+EVALUATION SCORE: 1</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,99 +269,49 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -426,166 +599,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="133.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Query</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Response</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Answer Relevance Reasoning</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Faithfulness Reasoning</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Context Relevance Reasoning</t>
-        </is>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>What controls are suggested for card payments security?</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>For card payments security, it is suggested to follow various payment card standards, including PCI-PIN, PCI-PTS, PCI-HSM, and PCI-P2PE, to ensure comprehensive security. Additionally, terminals at merchants should be validated against the PCI-P2PE program, and PoS terminals with PIN entry should be approved by the PCI-PTS program. Acquirers should secure their card payment infrastructure using measures like UKPT, DUKPT, or TLE.
-Hardware Security Modules (HSMs) should have logging enabled with tamper-proof logs, access control lists, and secure key management. HSMs should also be implemented with secure PIN block formats and controls to disable outputting PIN blocks in weaker formats.
-ATMs should have security measures such as BIOS passwords, disabled USB ports, and the latest patches for operating systems. Anti-skimming and whitelisting solutions should be implemented, and ATMs should be upgraded with supported operating system versions.
-Robust surveillance and monitoring of card transactions, especially overseas cash withdrawals, should be in place, with transaction limits set at the card, BIN, and RE levels. Card details should not be stored in plain text, and processing of card details in readable format should be performed securely.
-Card data scanning tools should be tested in a test environment, installed only in the RE's premises, and not used remotely. Discovered data should reside in the scanning tool, and exportable card data must be appropriately masked.</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>##Source 1:
-Governance and Management of Security Risks
-4 REs shall formulate a policy for digital payment products and services with the approval of their Board. The contours of the policy, while discussing the.....
-##Source 2:
-CARD PAYMENTS SECURITY
-In addition to the controls prescribed in Chapter II, the following instructions are applicable to the REs offering/ intending to issue cards (credit/ debit/ prepaid) (physical.....
-##Source 3:
-MOBILE PAYMENTS APPLICATION SECURITY CONTROLS
-In addition to the controls prescribed in Chapter II, the following instructions are applicable to the REs offering/ intending to offer mobile banking/ m.....
-##Source 4:
-INTERNET BANKING SECURITY CONTROLS
-In addition to the controls prescribed in Chapter II, the following instructions are applicable to REs offering/ intending to offer internet banking facility to the.....
-##Source 5:
-1 Short Title and Commencement
-a) These directions shall be called the Reserve Bank of India (Digital Payment Security Controls) directions, 2021.
-b) These directions shall come into effect six mont.....</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>Feedback: The response provides a comprehensive list of controls suggested for card payments security, addressing various aspects such as adherence to PCI standards, terminal validation, infrastructure security, hardware security modules, ATM security, transaction monitoring, and card data handling. The response is highly relevant and directly addresses the query with detailed and specific suggestions.
-EVALUATION SCORE: 1</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>Feedback: The response is largely faithful to the context provided. It accurately mentions various PCI standards for card payments security, the importance of validating terminals against PCI-P2PE, and the approval of PoS terminals by PCI-PTS. It also correctly highlights the need for secure key management and logging for HSMs, as well as the implementation of security measures for ATMs such as BIOS passwords, disabled USB ports, and anti-skimming solutions. The response also emphasizes the importance of robust surveillance and monitoring of card transactions, setting transaction limits, and secure processing of card details. However, the context does not explicitly mention UKPT, DUKPT, or TLE, which are included in the response. Additionally, the context does not specify the need for tamper-proof logs or the disabling of outputting PIN blocks in weaker formats for HSMs, nor does it mention the details about card data scanning tools being tested in a test environment and the handling of discovered data. These additions in the response are not directly supported by the context.
-EVALUATION SCORE: 0.7</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Feedback: The retrieved context is highly relevant to answering the query about controls suggested for card payments security. The context provides detailed guidelines and controls for digital payment products and services, including specific sections on card payments security, mobile payments application security controls, and internet banking security controls. It covers various aspects such as encryption, authentication, fraud risk management, and more, which are directly related to the security of card payments.
-EVALUATION SCORE: 1</t>
-        </is>
+    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>What controls/provisions are suggested for security of internet banking?</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>To enhance the security of internet banking, several controls are suggested:
-- **Additional Authentication**: Implement additional levels of authentication, such as adaptive authentication and strong CAPTCHA with anti-bot features, to protect against brute force and DoS attacks.
-- **Session Management**: Automatically terminate online sessions after a fixed period of inactivity.
-- **Password Management**: Ensure secure delivery of passwords for login purposes, with a limited validity period and mandatory change on first login.
-- **Uniform Authentication**: Maintain a uniform authentication procedure and appearance for internet banking sites, especially when accessed through external websites.
-- **Virtual Keyboard**: Provide a virtual keyboard option for entering sensitive data.
-- **DNS Cache Poisoning Prevention**: Implement measures to prevent DNS cache poisoning attacks.
-- **Secure Cookie Handling**: Ensure secure handling of cookies.
-- **Transaction Alerts**: Implement alerts for all payment transactions, including debits and credits, and changes to account details or fund transfer limits.
-- **Man-in-the-Middle Attack Protection**: Implement measures to minimize exposure to man-in-the-middle attacks.
-- **Failed Login Attempts**: Set a maximum number of failed login attempts and notify customers of such attempts.
-- **Fraud Detection**: Implement systems to identify and alert customers to suspicious transactional behavior.
-- **Customer Awareness**: Educate customers about maintaining the security of their devices and the risks and benefits of using digital payment products.
-- **Fraud Reporting**: Provide a mechanism for customers to report fraudulent transactions.</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>##Source 1:
-INTERNET BANKING SECURITY CONTROLS
-In addition to the controls prescribed in Chapter II, the following instructions are applicable to REs offering/ intending to offer internet banking facility to the.....
-##Source 2:
-Governance and Management of Security Risks
-4 REs shall formulate a policy for digital payment products and services with the approval of their Board. The contours of the policy, while discussing the.....
-##Source 3:
-MOBILE PAYMENTS APPLICATION SECURITY CONTROLS
-In addition to the controls prescribed in Chapter II, the following instructions are applicable to the REs offering/ intending to offer mobile banking/ m.....
-##Source 4:
-CARD PAYMENTS SECURITY
-In addition to the controls prescribed in Chapter II, the following instructions are applicable to the REs offering/ intending to issue cards (credit/ debit/ prepaid) (physical.....
-##Source 5:
-1 Short Title and Commencement
-a) These directions shall be called the Reserve Bank of India (Digital Payment Security Controls) directions, 2021.
-b) These directions shall come into effect six mont.....</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>Feedback: The response provides a comprehensive list of controls and provisions that directly address the query about enhancing the security of internet banking. Each point is relevant and specific to internet banking security, covering a wide range of measures from authentication and session management to fraud detection and customer awareness. The response is detailed and directly answers the query.
-EVALUATION SCORE: 1</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>Feedback: The response is largely faithful to the context provided. It outlines several security measures that align with the general theme of enhancing internet banking security. However, the context does not explicitly mention all the specific controls listed in the response, such as "adaptive authentication," "strong CAPTCHA with anti-bot features," "DNS cache poisoning prevention," and "man-in-the-middle attack protection." These specifics go beyond the general context provided, but they are reasonable extensions within the realm of internet banking security. Therefore, while the response is mostly supported by the context, it includes additional details that are not directly mentioned.
-EVALUATION SCORE: 0.8</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>Feedback: The retrieved context is highly relevant to the query. It provides detailed security controls and provisions specifically for internet banking, including measures for authentication, session management, password security, and various other security protocols. The context covers a wide range of security aspects that are directly applicable to ensuring the security of internet banking.
-EVALUATION SCORE: 1</t>
-        </is>
+    <row r="3" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
